--- a/Handmade data.xlsx
+++ b/Handmade data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38a82fa773eb48f5/Desktop/internship 2023 project/Titan-internship-project-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048C7699951165BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A6A190-77D8-4024-9D72-390FCB46719B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048C7699951165BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CF674D-E618-462E-BF4F-35F6EBAD3763}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,6 +121,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -390,10 +394,14 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
